--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3200286.625508344</v>
+        <v>3304466.259959417</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.1842403900284</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>10.92172565345345</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>215.4812298105946</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>72.75406055538301</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.235152633618263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>142.4984577843359</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>224.8416289340124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>114.8923160260112</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>54.89783554686813</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>95.38431235357577</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>282.2717811533774</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>148.625073817606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>212.2293408749851</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634808</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695547</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.619672595757311</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633182714</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012187</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>155.1980648094021</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>84.07981473403338</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>126.8024622972544</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>72.78315874934725</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>126.5816737497815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>260.7274784456226</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2378,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.0016338997284</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>119.625528131962</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>46.29306638367343</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444138</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174108</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>47.84205650381887</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>77.39507264402552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>47.88058113793106</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>232.7791955207212</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,16 +3325,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>36.22494343870073</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>50.5268247622973</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>70.30034983101194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462236</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.97191586387478</v>
+        <v>66.37524671012143</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892439</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>198.7323644553096</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>46.13809394730832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>170.8317276803717</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.073083428566</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C2" t="n">
-        <v>828.1105664881545</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
         <v>417.1246616985469</v>
@@ -4325,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2997.657345246776</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2666.594457903205</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2313.82580263309</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2313.82580263309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2617.448119005311</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C4" t="n">
-        <v>2617.448119005311</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D4" t="n">
-        <v>2617.448119005311</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E4" t="n">
-        <v>2617.448119005311</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F4" t="n">
-        <v>2617.448119005311</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="G4" t="n">
-        <v>2617.448119005311</v>
+        <v>286.2182532702681</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>140.0010664881258</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005522</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.153322005522</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>2912.153322005522</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>2622.736151968561</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>2622.736151968561</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>2617.448119005311</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>568.0079985935442</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,10 +4582,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.60903256753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.14327430645</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
         <v>234.2149530574645</v>
@@ -4747,28 +4749,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>523.3178199318208</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>234.2149530574645</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V7" t="n">
-        <v>234.2149530574645</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W7" t="n">
-        <v>234.2149530574645</v>
+        <v>439.7839516080508</v>
       </c>
       <c r="X7" t="n">
-        <v>234.2149530574645</v>
+        <v>439.7839516080508</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.2149530574645</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1774.969111598458</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1774.969111598458</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.703412991707</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.915160393463</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>619.9292556038554</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>204.8568054488518</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662579</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.568951662579</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4877,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>391.8273445118554</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X10" t="n">
-        <v>163.8377936138381</v>
+        <v>417.09676419033</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>473.9330993947879</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>323.8164599824519</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273902</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605119</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991036</v>
+        <v>538.7363435406114</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711968</v>
+        <v>538.7363435406114</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711968</v>
+        <v>388.6197041282756</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888038</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1786.311582407851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.89441237089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472873</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329343</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,64 +5503,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179116</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900048</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>593.6115863900048</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>445.6984928076118</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>445.6984928076118</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258108</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602306</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396419</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359459</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614415</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179116</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,28 +5776,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3112.537432147379</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C22" t="n">
-        <v>2943.601249219472</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D22" t="n">
-        <v>2793.484609807137</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
         <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>4404.185983673938</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>4115.110757018136</v>
       </c>
       <c r="V22" t="n">
-        <v>3804.395646158109</v>
+        <v>3860.426268812249</v>
       </c>
       <c r="W22" t="n">
-        <v>3514.978476121149</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="X22" t="n">
-        <v>3514.978476121149</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="Y22" t="n">
-        <v>3294.185896977619</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,25 +6007,25 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6032,7 +6034,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784055</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504987</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381631</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557701</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578599</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855606</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199804</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993917</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956956</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058939</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y25" t="n">
-        <v>1099.149479058939</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4852666057155</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>121.3392859393708</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6445,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913849</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913849</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1918.296605585278</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,13 +6779,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>716.6687843969308</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876678</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160203</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036844</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036844</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057739</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,13 +6858,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359455</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614379</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179076</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911441</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835337</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711978</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888046</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908941</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,13 +7095,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783228</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885211</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741681</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7202,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>697.5276345711978</v>
+        <v>3110.333886317437</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711978</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711978</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888046</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908941</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057739</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4572.750251921402</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4353.148786944344</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>4064.073560288542</v>
       </c>
       <c r="V40" t="n">
-        <v>1617.375399479946</v>
+        <v>3809.389072082655</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.958229442985</v>
+        <v>3519.971902045694</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.968678544968</v>
+        <v>3291.982351147677</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.1760994014377</v>
+        <v>3291.982351147677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7439,19 +7441,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888046</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888046</v>
+        <v>847.644273983532</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888046</v>
+        <v>697.5276345711965</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888046</v>
+        <v>549.6145409888036</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038349</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797753</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2415.678320081397</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2232.823485736301</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2013.222020759242</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U43" t="n">
-        <v>1724.14679410344</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.462305897553</v>
+        <v>1487.646091778638</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.045135860592</v>
+        <v>1198.228921741678</v>
       </c>
       <c r="X43" t="n">
-        <v>952.0555849625747</v>
+        <v>1198.228921741678</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.2630058190445</v>
+        <v>1198.228921741678</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3584617859342</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2418223735984</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3287287912053</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.21230758618</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7255247668009</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>24.63391537253534</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>168.0578285897945</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>38.72167599501431</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>125.5559695740464</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>25.79551989096836</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.83034628220872</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>26.80843451460716</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>99.12798163925781</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>113.047316183739</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>100.7734165143935</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3662399606969</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>53.40527886852297</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>250.2980548978904</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>181.8372934928162</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856529</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.40333084624702</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>53.4052788685182</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>99.28295407562292</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.57372264691656</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618129</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618132</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210055</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.539494726903513e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189176</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.5839718921</v>
+        <v>16046.58397189188</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189212</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.5839718921</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26506,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151836</v>
+        <v>-791337.837515183</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124095</v>
+        <v>537406.9082124092</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124096</v>
+        <v>537406.9082124098</v>
       </c>
       <c r="E6" t="n">
-        <v>283850.3641178511</v>
+        <v>283850.3641178508</v>
       </c>
       <c r="F6" t="n">
         <v>609262.8259252062</v>
       </c>
       <c r="G6" t="n">
-        <v>609262.8259252062</v>
+        <v>609262.8259252072</v>
       </c>
       <c r="H6" t="n">
-        <v>609262.8259252063</v>
+        <v>609262.8259252065</v>
       </c>
       <c r="I6" t="n">
-        <v>609262.8259252063</v>
+        <v>609262.8259252061</v>
       </c>
       <c r="J6" t="n">
-        <v>391731.6235279288</v>
+        <v>391731.6235279293</v>
       </c>
       <c r="K6" t="n">
-        <v>609262.8259252063</v>
+        <v>609262.8259252065</v>
       </c>
       <c r="L6" t="n">
-        <v>609262.8259252064</v>
+        <v>609262.8259252061</v>
       </c>
       <c r="M6" t="n">
-        <v>524207.7979896949</v>
+        <v>524207.797989694</v>
       </c>
       <c r="N6" t="n">
         <v>609262.8259252063</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.8259252065</v>
+        <v>609262.8259252062</v>
       </c>
       <c r="P6" t="n">
         <v>609262.8259252061</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26762,7 +26764,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,10 +26919,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.192436840862939e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.569523475145138e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.192436840862939e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.569523475145138e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.5496012734521</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>35.51394214830739</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>23.59835985445508</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.3495007184765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>239.4319122879259</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>124.3993397834006</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>104.656633250158</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>163.6868178052267</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2234520337447</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>103.9661575026762</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>137.897924518985</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13.48031451405208</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28266,55 +28268,55 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-8.628682000732227e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.192531870345452e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.000095029482513e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.410498581291003e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29518,10 +29520,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29569,16 +29571,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.21849573194802e-12</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29992,13 +29994,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30043,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.084547171206402e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.157843905498093e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018702</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>386.7287743289952</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,16 +32320,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>536.8001439125374</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33023,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.8560084902135</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>539.5330155967692</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>355.4083096598243</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338201</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>338.9915131655318</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>536.8001439125376</v>
+        <v>508.8976500257889</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>244.1325298845507</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>394.6661099905191</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>405.5586081824389</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>213.2742757378061</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>25.73094315394595</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.0097390795103</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295363</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>394.6661099905193</v>
+        <v>366.7636161037706</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3304466.259959417</v>
+        <v>3300453.649945423</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>175.2171019709008</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>215.4812298105946</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>72.75406055538301</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>142.4984577843359</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>322.6110453484143</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.89783554686813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>109.6870817625076</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>282.2717811533774</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>221.7048515690722</v>
       </c>
       <c r="X10" t="n">
-        <v>212.2293408749851</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695547</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>39.52129633182714</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856573</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012187</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.1980648094021</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.78315874934725</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>260.7274784456226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>119.625528131962</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>27.24739666248491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,16 +2851,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>47.84205650381887</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>232.7791955207212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,16 +3325,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>50.5268247622973</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986276</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>198.7323644553096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>170.8317276803717</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1480.516858765516</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1111.554341825104</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1111.554341825104</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1111.554341825104</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>700.5684370354968</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>285.4959868804933</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>2997.657345246776</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2666.594457903205</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W2" t="n">
-        <v>2313.82580263309</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="X2" t="n">
-        <v>2313.82580263309</v>
+        <v>2257.256030805449</v>
       </c>
       <c r="Y2" t="n">
-        <v>1923.686470657279</v>
+        <v>1867.116698829638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,22 +4427,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>751.950822890278</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779422</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>453.9210898955491</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>453.9210898955491</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>286.2182532702681</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>140.0010664881258</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140706</v>
+        <v>1501.213961756481</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002947</v>
+        <v>1501.213961756481</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0079985935442</v>
+        <v>1142.948263149731</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1142.948263149731</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>731.9623583601235</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1887.813801820603</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>601.8341834779419</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>453.9210898955488</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>307.0311423976384</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>139.3283057723574</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>139.3283057723574</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>439.7839516080508</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>439.7839516080508</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>177.3071485155245</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612892</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612892</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.469835781224</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>417.09676419033</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355939</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.043492616111</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400678</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947879</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824519</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000585</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000585</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000585</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138381</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703078</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239598</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605119</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.7363435406114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282756</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458824</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5527,16 +5527,16 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.240688199802</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.823518162841</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.833967264824</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5776,16 +5776,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5794,10 +5794,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499466</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650996</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673938</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018136</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812249</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3597.065179473236</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473236</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329706</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>924.6979859831846</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>605.645163642942</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,25 +6305,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>733.4550657171301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>583.3384263047943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>435.4253327224012</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>288.5353852244908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>121.3392859393708</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913849</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913849</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345991</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585278</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400703</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400703</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138402</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.50206557031</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1742.330579984527</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1487.64609177864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3110.333886317437</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>2941.39770338953</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.39770338953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4572.750251921402</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4353.148786944344</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>4064.073560288542</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>3809.389072082655</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W40" t="n">
-        <v>3519.971902045694</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>3291.982351147677</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>3291.982351147677</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983532</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711965</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888036</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797753</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1487.646091778638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.228921741678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.228921741678</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.228921741678</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2091.550948547921</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2091.550948547921</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.866460342034</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7255247668009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922691</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462241</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.63391537253534</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>25.79551989096836</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>26.80843451460716</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>113.047316183739</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.7734165143935</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>53.40527886852297</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.4994612393473</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856529</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>53.4052788685182</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890369</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.57372264691656</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>701323.2088618129</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618132</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210055</v>
@@ -26337,25 +26337,25 @@
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>9.539494726903513e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189176</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189188</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26444,19 +26444,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.5839718921</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.837515183</v>
+        <v>-791337.8375151827</v>
       </c>
       <c r="C6" t="n">
         <v>537406.9082124092</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124098</v>
+        <v>537406.9082124091</v>
       </c>
       <c r="E6" t="n">
-        <v>283850.3641178508</v>
+        <v>283502.9848634938</v>
       </c>
       <c r="F6" t="n">
-        <v>609262.8259252062</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="G6" t="n">
-        <v>609262.8259252072</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="H6" t="n">
-        <v>609262.8259252065</v>
+        <v>608915.4466708495</v>
       </c>
       <c r="I6" t="n">
-        <v>609262.8259252061</v>
+        <v>608915.4466708492</v>
       </c>
       <c r="J6" t="n">
-        <v>391731.6235279293</v>
+        <v>391384.244273572</v>
       </c>
       <c r="K6" t="n">
-        <v>609262.8259252065</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="L6" t="n">
-        <v>609262.8259252061</v>
+        <v>608915.446670849</v>
       </c>
       <c r="M6" t="n">
-        <v>524207.797989694</v>
+        <v>523860.4187353372</v>
       </c>
       <c r="N6" t="n">
-        <v>609262.8259252063</v>
+        <v>608915.4466708495</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.8259252062</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="P6" t="n">
-        <v>609262.8259252061</v>
+        <v>608915.4466708493</v>
       </c>
     </row>
   </sheetData>
@@ -26709,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26764,7 +26764,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26919,10 +26919,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.192436840862939e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.569523475145138e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.192436840862939e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.569523475145138e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>119.3906624164197</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>35.51394214830739</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>23.59835985445508</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>239.4319122879259</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>88.31068030503917</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.26439296306587</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.6868178052267</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>184.9206826248128</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>103.9661575026762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>64.81814676751881</v>
       </c>
       <c r="X10" t="n">
-        <v>13.48031451405208</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28268,55 +28268,55 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.628682000732227e-14</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.192531870345452e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.000095029482513e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.410498581291003e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29520,10 +29520,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29571,16 +29571,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.21849573194802e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29994,13 +29994,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.084547171206402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.157843905498093e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422587</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,34 +32077,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>386.7287743289952</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32478,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>536.8001439125374</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32955,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.8560084902135</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>539.5330155967692</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>388.514013929771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338201</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>508.8976500257889</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678997</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>244.1325298845507</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>394.6661099905191</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>405.5586081824389</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>245.9177694853266</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394595</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295363</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>366.7636161037706</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3300453.649945423</v>
+        <v>3302214.180248208</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>295.8386318208274</v>
       </c>
       <c r="H2" t="n">
-        <v>175.2171019709008</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386313</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>322.6110453484143</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>235.1550917323866</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H8" t="n">
-        <v>109.6870817625076</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144184</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.7048515690722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1222404669082</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>180.9172429496413</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.019807611472247</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1480.516858765516</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C2" t="n">
-        <v>1111.554341825104</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.554341825104</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="E2" t="n">
-        <v>1111.554341825104</v>
+        <v>1115.905421202674</v>
       </c>
       <c r="F2" t="n">
-        <v>700.5684370354968</v>
+        <v>704.919516413066</v>
       </c>
       <c r="G2" t="n">
-        <v>285.4959868804933</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066529</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066529</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.256030805449</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1867.116698829638</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
         <v>809.0152357068853</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756481</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.213961756481</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1142.948263149731</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.948263149731</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>731.9623583601235</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066529</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796415</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820603</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181845</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902777</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779419</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955488</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976384</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723574</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3283057723574</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179758</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197315</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301239</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G8" t="n">
-        <v>177.3071485155245</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5001,13 +5001,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>182.6877057396768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>304.7988649377478</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.686657667657</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.269487630696</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.91759473995626</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.2672314396028</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.35543909864944</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26444,7 +26444,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151827</v>
+        <v>-791337.8375151828</v>
       </c>
       <c r="C6" t="n">
+        <v>537406.9082124091</v>
+      </c>
+      <c r="D6" t="n">
         <v>537406.9082124092</v>
       </c>
-      <c r="D6" t="n">
-        <v>537406.9082124091</v>
-      </c>
       <c r="E6" t="n">
-        <v>283502.9848634938</v>
+        <v>283815.6261924152</v>
       </c>
       <c r="F6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="G6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="H6" t="n">
-        <v>608915.4466708495</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="I6" t="n">
-        <v>608915.4466708492</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="J6" t="n">
-        <v>391384.244273572</v>
+        <v>391696.8856024934</v>
       </c>
       <c r="K6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="L6" t="n">
-        <v>608915.446670849</v>
+        <v>609228.0879997708</v>
       </c>
       <c r="M6" t="n">
-        <v>523860.4187353372</v>
+        <v>524173.0600642586</v>
       </c>
       <c r="N6" t="n">
-        <v>608915.4466708495</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="O6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="P6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997707</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>115.083093832626</v>
       </c>
       <c r="H2" t="n">
-        <v>119.3906624164197</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>107.7439527351651</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>88.31068030503917</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>15.84008022651537</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.26439296306587</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H8" t="n">
-        <v>184.9206826248128</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>64.81814676751887</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>64.81814676751881</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32478,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -32955,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
